--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexalvertos/Desktop/dotidata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexalvertos/Documents/GitHub/Endangered-Species-NoSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DD73E-E6D7-5A44-8867-3DACA0E8ECFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297ED1B0-967D-8B42-A204-C53963615471}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17040" xr2:uid="{3307716B-B940-8E4F-8497-0426CFD83F9B}"/>
   </bookViews>
@@ -146,12 +146,6 @@
     <t>MAIN TABLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Each organism is given an ID based on their federal protection status, either 1 or 2 </t>
-  </si>
-  <si>
-    <t>1 is Threatened, 2 is Endangered</t>
-  </si>
-  <si>
     <t>This attribute contains the names of the organisms in our DB</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>The name of the U.S. state</t>
+  </si>
+  <si>
+    <t>1 is Threatened, 2 is Endangered, 3 is Protected</t>
+  </si>
+  <si>
+    <t>Each organism is given an ID based on their federal protection status, either 1, 2, or 3</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -664,6 +663,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8DB7B2-BFD9-0043-9261-B1680E491CB9}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1056,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="51">
@@ -1073,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>7</v>
@@ -1082,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" thickBot="1">
@@ -1108,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34">
@@ -1128,7 +1130,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="33"/>
@@ -1173,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>8</v>
@@ -1181,8 +1183,8 @@
       <c r="H9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="92" t="s">
-        <v>57</v>
+      <c r="I9" s="91" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="52" thickBot="1">
@@ -1208,20 +1210,20 @@
         <v>15</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="D11" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="49"/>
-      <c r="G11" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
+      <c r="G11" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:10" ht="17">
       <c r="D12" s="45" t="s">
@@ -1233,13 +1235,13 @@
       <c r="F12" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="82" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1251,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>5</v>
@@ -1259,8 +1261,8 @@
       <c r="H13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="91" t="s">
-        <v>59</v>
+      <c r="I13" s="90" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35" thickBot="1">
@@ -1271,29 +1273,29 @@
         <v>15</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="60" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="D15" s="61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="G15" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:10" ht="17">
       <c r="D16" s="64" t="s">
@@ -1305,14 +1307,14 @@
       <c r="F16" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="89" t="s">
-        <v>51</v>
+      <c r="I16" s="88" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="51">
@@ -1323,36 +1325,36 @@
         <v>14</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="17" thickBot="1">
+      <c r="I17" s="89" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="35" thickBot="1">
       <c r="D18" s="70" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="76" t="s">
+      <c r="F18" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="77" t="s">
-        <v>53</v>
+      <c r="I18" s="76" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
